--- a/School_Details.xlsx
+++ b/School_Details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>School Name</t>
   </si>
@@ -44,22 +44,34 @@
     <t>Total Beneficiaries</t>
   </si>
   <si>
+    <t>Gatid Elementary School</t>
+  </si>
+  <si>
+    <t>Laguna</t>
+  </si>
+  <si>
+    <t>Santa Cruz</t>
+  </si>
+  <si>
+    <t>Gatid, Santa Cruz, Laguna</t>
+  </si>
+  <si>
+    <t>Barangay Gatid</t>
+  </si>
+  <si>
+    <t>example name</t>
+  </si>
+  <si>
+    <t>09123345353</t>
+  </si>
+  <si>
     <t>Oogong Elementary School</t>
   </si>
   <si>
-    <t>Laguna</t>
-  </si>
-  <si>
-    <t>Santa Cruz</t>
-  </si>
-  <si>
     <t>Oogong, Santa Cruz, Laguna</t>
   </si>
   <si>
     <t>Barangay Oogong</t>
-  </si>
-  <si>
-    <t>example name</t>
   </si>
   <si>
     <t>09277321745</t>
@@ -402,7 +414,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +473,7 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>123465</v>
+        <v>123461</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -476,6 +488,35 @@
         <v>15</v>
       </c>
       <c r="I2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>123465</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3">
         <v>4</v>
       </c>
     </row>

--- a/School_Details.xlsx
+++ b/School_Details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
   <si>
     <t>School Name</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Total Beneficiaries</t>
   </si>
   <si>
-    <t>Gatid Elementary School</t>
+    <t>Duhat Elementary School</t>
   </si>
   <si>
     <t>Laguna</t>
@@ -53,28 +53,16 @@
     <t>Santa Cruz</t>
   </si>
   <si>
-    <t>Gatid, Santa Cruz, Laguna</t>
-  </si>
-  <si>
-    <t>Barangay Gatid</t>
-  </si>
-  <si>
-    <t>example name</t>
-  </si>
-  <si>
-    <t>09123345353</t>
-  </si>
-  <si>
-    <t>Oogong Elementary School</t>
-  </si>
-  <si>
-    <t>Oogong, Santa Cruz, Laguna</t>
-  </si>
-  <si>
-    <t>Barangay Oogong</t>
-  </si>
-  <si>
-    <t>09277321745</t>
+    <t>Duhat, Santa Cruz, Laguna</t>
+  </si>
+  <si>
+    <t>Barangay Duhat</t>
+  </si>
+  <si>
+    <t>ewan</t>
+  </si>
+  <si>
+    <t>09883273453</t>
   </si>
 </sst>
 </file>
@@ -414,7 +402,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,12 +410,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="29.421" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="34.135" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="31.707" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="30.564" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="30.564" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="23.423" bestFit="true" customWidth="true" style="0"/>
@@ -473,7 +461,7 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>123461</v>
+        <v>123460</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -488,36 +476,7 @@
         <v>15</v>
       </c>
       <c r="I2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>123465</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/School_Details.xlsx
+++ b/School_Details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>School Name</t>
   </si>
@@ -44,7 +44,7 @@
     <t>Total Beneficiaries</t>
   </si>
   <si>
-    <t>Duhat Elementary School</t>
+    <t>Gatid Elementary School</t>
   </si>
   <si>
     <t>Laguna</t>
@@ -53,16 +53,31 @@
     <t>Santa Cruz</t>
   </si>
   <si>
-    <t>Duhat, Santa Cruz, Laguna</t>
-  </si>
-  <si>
-    <t>Barangay Duhat</t>
-  </si>
-  <si>
-    <t>ewan</t>
+    <t>Gatid, Santa Cruz, Laguna</t>
+  </si>
+  <si>
+    <t>Barangay Gatid</t>
+  </si>
+  <si>
+    <t>LOREVIE K. RIVERA</t>
   </si>
   <si>
     <t>09883273453</t>
+  </si>
+  <si>
+    <t>Palanan Elementary School</t>
+  </si>
+  <si>
+    <t>Palanan, Santa Cruz, Laguna</t>
+  </si>
+  <si>
+    <t>Barangay Palanan</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>09435567563</t>
   </si>
 </sst>
 </file>
@@ -402,7 +417,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,12 +425,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="30.564" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="34.135" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="30.564" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="32.992" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="19.995" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="30.564" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="23.423" bestFit="true" customWidth="true" style="0"/>
@@ -461,7 +476,7 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>123460</v>
+        <v>123461</v>
       </c>
       <c r="E2" t="s">
         <v>12</v>
@@ -476,6 +491,35 @@
         <v>15</v>
       </c>
       <c r="I2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>123467</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
     </row>

--- a/School_Details.xlsx
+++ b/School_Details.xlsx
@@ -65,19 +65,19 @@
     <t>09883273453</t>
   </si>
   <si>
-    <t>Palanan Elementary School</t>
-  </si>
-  <si>
-    <t>Palanan, Santa Cruz, Laguna</t>
-  </si>
-  <si>
-    <t>Barangay Palanan</t>
+    <t>San Juan Elementary School</t>
+  </si>
+  <si>
+    <t>San Juan, Santa Cruz, Laguna</t>
+  </si>
+  <si>
+    <t>Barangay San Juan</t>
   </si>
   <si>
     <t>sample</t>
   </si>
   <si>
-    <t>09435567563</t>
+    <t>09123456789</t>
   </si>
 </sst>
 </file>
@@ -425,12 +425,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="30.564" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="31.707" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="34.135" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="32.992" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="19.995" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="34.135" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="30.564" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="23.423" bestFit="true" customWidth="true" style="0"/>
@@ -505,7 +505,7 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <v>123467</v>
+        <v>123469</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -520,7 +520,7 @@
         <v>20</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/School_Details.xlsx
+++ b/School_Details.xlsx
@@ -491,7 +491,7 @@
         <v>15</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -520,7 +520,7 @@
         <v>20</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
